--- a/legislator/property/output/normal/邱議瑩_2013-12-03_財產申報表_tmp40191.xlsx
+++ b/legislator/property/output/normal/邱議瑩_2013-12-03_財產申報表_tmp40191.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="106">
   <si>
     <t>土地坐落</t>
   </si>
@@ -215,7 +215,19 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>中興商銀(已下市）</t>
+  </si>
+  <si>
+    <t>2013-12-03</t>
   </si>
   <si>
     <t>保險公司</t>
@@ -1369,13 +1381,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>58</v>
       </c>
@@ -1394,13 +1406,22 @@
       <c r="G1" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>72</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
@@ -1416,6 +1437,15 @@
       </c>
       <c r="G2" s="2">
         <v>1170</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="2">
+        <v>913</v>
       </c>
     </row>
   </sheetData>
@@ -1433,13 +1463,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1447,10 +1477,10 @@
         <v>97</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>11</v>
@@ -1461,10 +1491,10 @@
         <v>98</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>11</v>
@@ -1475,10 +1505,10 @@
         <v>99</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
@@ -1489,10 +1519,10 @@
         <v>100</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>12</v>
@@ -1503,10 +1533,10 @@
         <v>101</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>12</v>
@@ -1517,10 +1547,10 @@
         <v>102</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>12</v>
@@ -1531,10 +1561,10 @@
         <v>103</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>12</v>
@@ -1555,20 +1585,20 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1576,22 +1606,22 @@
         <v>116</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E2" s="2">
         <v>7638124</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1599,22 +1629,22 @@
         <v>117</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E3" s="2">
         <v>7418526</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1632,22 +1662,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1658,19 +1688,19 @@
         <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E2" s="2">
         <v>1000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1681,19 +1711,19 @@
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E3" s="2">
         <v>500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/邱議瑩_2013-12-03_財產申報表_tmp40191.xlsx
+++ b/legislator/property/output/normal/邱議瑩_2013-12-03_財產申報表_tmp40191.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="108">
   <si>
     <t>土地坐落</t>
   </si>
@@ -215,6 +215,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -225,6 +228,9 @@
   </si>
   <si>
     <t>中興商銀(已下市）</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2013-12-03</t>
@@ -1381,13 +1387,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>58</v>
       </c>
@@ -1415,13 +1421,16 @@
       <c r="J1" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>72</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
@@ -1439,12 +1448,15 @@
         <v>1170</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="2">
+        <v>70</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="2">
         <v>913</v>
       </c>
     </row>
@@ -1463,13 +1475,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1477,10 +1489,10 @@
         <v>97</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>11</v>
@@ -1491,10 +1503,10 @@
         <v>98</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>11</v>
@@ -1505,10 +1517,10 @@
         <v>99</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
@@ -1519,10 +1531,10 @@
         <v>100</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>12</v>
@@ -1533,10 +1545,10 @@
         <v>101</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>12</v>
@@ -1547,10 +1559,10 @@
         <v>102</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>12</v>
@@ -1561,10 +1573,10 @@
         <v>103</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>12</v>
@@ -1585,20 +1597,20 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1606,22 +1618,22 @@
         <v>116</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E2" s="2">
         <v>7638124</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1629,22 +1641,22 @@
         <v>117</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E3" s="2">
         <v>7418526</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1662,22 +1674,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1688,19 +1700,19 @@
         <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E2" s="2">
         <v>1000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1711,19 +1723,19 @@
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E3" s="2">
         <v>500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/邱議瑩_2013-12-03_財產申報表_tmp40191.xlsx
+++ b/legislator/property/output/normal/邱議瑩_2013-12-03_財產申報表_tmp40191.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="113">
   <si>
     <t>土地坐落</t>
   </si>
@@ -218,6 +218,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -227,13 +230,25 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>中興商銀(已下市）</t>
   </si>
   <si>
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2013-12-03</t>
+  </si>
+  <si>
+    <t>tmp40191</t>
   </si>
   <si>
     <t>保險公司</t>
@@ -1387,13 +1402,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>58</v>
       </c>
@@ -1424,13 +1439,22 @@
       <c r="K1" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>72</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
@@ -1448,16 +1472,25 @@
         <v>1170</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="2">
+        <v>74</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="2">
         <v>913</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N2" s="2">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1475,13 +1508,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1489,10 +1522,10 @@
         <v>97</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>11</v>
@@ -1503,10 +1536,10 @@
         <v>98</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>11</v>
@@ -1517,10 +1550,10 @@
         <v>99</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
@@ -1531,10 +1564,10 @@
         <v>100</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>12</v>
@@ -1545,10 +1578,10 @@
         <v>101</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>12</v>
@@ -1559,10 +1592,10 @@
         <v>102</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>12</v>
@@ -1573,10 +1606,10 @@
         <v>103</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>12</v>
@@ -1597,20 +1630,20 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1618,22 +1651,22 @@
         <v>116</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E2" s="2">
         <v>7638124</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1641,22 +1674,22 @@
         <v>117</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E3" s="2">
         <v>7418526</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1674,22 +1707,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1700,19 +1733,19 @@
         <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E2" s="2">
         <v>1000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1723,19 +1756,19 @@
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E3" s="2">
         <v>500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/邱議瑩_2013-12-03_財產申報表_tmp40191.xlsx
+++ b/legislator/property/output/normal/邱議瑩_2013-12-03_財產申報表_tmp40191.xlsx
@@ -21,9 +21,93 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="113">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="116">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>高雄市美濃區福安段02410000地號</t>
+  </si>
+  <si>
+    <t>高雄市鳥松區育才段03160000地號</t>
+  </si>
+  <si>
+    <t>12分之1</t>
+  </si>
+  <si>
+    <t>10000分之36</t>
+  </si>
+  <si>
+    <t>李永得</t>
+  </si>
+  <si>
+    <t>邱議瑩</t>
+  </si>
+  <si>
+    <t>95年04月10日</t>
+  </si>
+  <si>
+    <t>99年06月18日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>133075(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2013-12-03</t>
+  </si>
+  <si>
+    <t>tmp40191</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -44,40 +128,7 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>高雄市美濃區福安段0241-0000 地號</t>
-  </si>
-  <si>
-    <t>高雄市鳥松區育才段0316-0000 地號</t>
-  </si>
-  <si>
-    <t>12分之1</t>
-  </si>
-  <si>
-    <t>10000分之 36</t>
-  </si>
-  <si>
-    <t>李永得</t>
-  </si>
-  <si>
-    <t>邱議瑩</t>
-  </si>
-  <si>
-    <t>95年04月 10日</t>
-  </si>
-  <si>
-    <t>99年06月 18日</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>133，075(超過 五年）</t>
-  </si>
-  <si>
-    <t>建'物標示</t>
-  </si>
-  <si>
-    <t>高雄市鳥松區育才段02053-000 建號</t>
+    <t>高雄市鳥松區育才段02053000建號</t>
   </si>
   <si>
     <t>全部</t>
@@ -95,7 +146,7 @@
     <t>NISSAN</t>
   </si>
   <si>
-    <t>91年08月 27日</t>
+    <t>91年08月27日</t>
   </si>
   <si>
     <t>(超過五年）</t>
@@ -110,16 +161,16 @@
     <t>新臺幣總額或折合新臺幣總額</t>
   </si>
   <si>
-    <t>存 放機構 (應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>National Australia Band Sydney</t>
+    <t>存放機構(應敘明分支機構）</t>
+  </si>
+  <si>
+    <t>NationalAustraliaBandSydney</t>
   </si>
   <si>
     <t>臺灣銀行松山分行</t>
   </si>
   <si>
-    <t>國泰世華商業銀行南京東 路分行</t>
+    <t>國泰世華商業銀行南京東路分行</t>
   </si>
   <si>
     <t>高雄銀行市府分行</t>
@@ -131,13 +182,13 @@
     <t>臺灣土地銀行總行</t>
   </si>
   <si>
-    <t>兆豐國際商業銀行中山分 行</t>
-  </si>
-  <si>
-    <t>兆豐國際商業銀行衡陽分 行</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行敦北分 行</t>
+    <t>兆豐國際商業銀行中山分行</t>
+  </si>
+  <si>
+    <t>兆豐國際商業銀行衡陽分行</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行敦北分行</t>
   </si>
   <si>
     <t>花旗（台灣）銀行營業部</t>
@@ -149,7 +200,7 @@
     <t>臺灣銀行群賢分行</t>
   </si>
   <si>
-    <t>臺灣新光商業銀行屏東分 行</t>
+    <t>臺灣新光商業銀行屏東分行</t>
   </si>
   <si>
     <t>彰化商業銀行屏東分行</t>
@@ -164,7 +215,7 @@
     <t>京城商業銀行忠孝分行</t>
   </si>
   <si>
-    <t>種 類</t>
+    <t>種類</t>
   </si>
   <si>
     <t>活期儲蓄存款</t>
@@ -179,9 +230,6 @@
     <t>定期存款</t>
   </si>
   <si>
-    <t>幣 別</t>
-  </si>
-  <si>
     <t>澳幣</t>
   </si>
   <si>
@@ -194,15 +242,6 @@
     <t>美金</t>
   </si>
   <si>
-    <t>新臺幣總額或折合 新臺幣總額</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -215,42 +254,12 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>中興商銀(已下市）</t>
   </si>
   <si>
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2013-12-03</t>
-  </si>
-  <si>
-    <t>tmp40191</t>
-  </si>
-  <si>
     <t>保險公司</t>
   </si>
   <si>
@@ -305,16 +314,16 @@
     <t>房屋貸款</t>
   </si>
   <si>
-    <t>京城商業銀行忠孝分行 臺北市南港區忠孝東路六段 21號1樓</t>
-  </si>
-  <si>
-    <t>臺灣銀行高雄三民分行 高雄市三民區九如二路567 號</t>
-  </si>
-  <si>
-    <t>98年11月 16日</t>
-  </si>
-  <si>
-    <t>99年06月 21曰</t>
+    <t>京城商業銀行忠孝分行臺北市南港區忠孝東路六段21號1樓</t>
+  </si>
+  <si>
+    <t>臺灣銀行高雄三民分行高雄市三民區九如二路567號</t>
+  </si>
+  <si>
+    <t>98年11月16日</t>
+  </si>
+  <si>
+    <t>99年06月21曰</t>
   </si>
   <si>
     <t>購屋</t>
@@ -341,19 +350,19 @@
     <t>玉山社事業股份有限公司</t>
   </si>
   <si>
-    <t>先驅媒體社會企業股份有限 公司</t>
-  </si>
-  <si>
-    <t>臺北市仁愛路四段145號3 樓之2</t>
+    <t>先驅媒體社會企業股份有限公司</t>
+  </si>
+  <si>
+    <t>臺北市仁愛路四段145號3樓之2</t>
   </si>
   <si>
     <t>臺北市仁愛路二段98號7樓</t>
   </si>
   <si>
-    <t>84年07月 08日</t>
-  </si>
-  <si>
-    <t>98年07月 24日</t>
+    <t>84年07月08日</t>
+  </si>
+  <si>
+    <t>98年07月24日</t>
   </si>
   <si>
     <t>發起設立</t>
@@ -718,13 +727,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -746,57 +755,120 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>1140.65</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="2">
+        <v>913</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>14538.71</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H3" s="2">
         <v>17000000</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="2">
+        <v>913</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -814,25 +886,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -840,22 +912,22 @@
         <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2">
         <v>133.61</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H2" s="2">
         <v>17000000</v>
@@ -876,22 +948,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -899,22 +971,22 @@
         <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2">
         <v>3000</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -932,16 +1004,16 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -951,22 +1023,22 @@
         <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -974,16 +1046,16 @@
         <v>43</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2">
         <v>7248</v>
@@ -997,16 +1069,16 @@
         <v>44</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
@@ -1018,16 +1090,16 @@
         <v>45</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
@@ -1039,16 +1111,16 @@
         <v>46</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -1060,16 +1132,16 @@
         <v>47</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
@@ -1081,16 +1153,16 @@
         <v>48</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F8" s="2">
         <v>28513</v>
@@ -1104,16 +1176,16 @@
         <v>49</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
@@ -1125,16 +1197,16 @@
         <v>50</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
@@ -1146,16 +1218,16 @@
         <v>51</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
@@ -1167,16 +1239,16 @@
         <v>52</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
@@ -1188,16 +1260,16 @@
         <v>53</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
@@ -1209,16 +1281,16 @@
         <v>54</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
@@ -1230,16 +1302,16 @@
         <v>55</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F15" s="2">
         <v>2000</v>
@@ -1253,16 +1325,16 @@
         <v>56</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
@@ -1274,16 +1346,16 @@
         <v>57</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2">
@@ -1295,16 +1367,16 @@
         <v>58</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2">
@@ -1316,16 +1388,16 @@
         <v>59</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2">
@@ -1337,16 +1409,16 @@
         <v>60</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2">
@@ -1358,16 +1430,16 @@
         <v>61</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2">
@@ -1379,16 +1451,16 @@
         <v>62</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2">
@@ -1410,43 +1482,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1454,10 +1526,10 @@
         <v>72</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2">
         <v>117</v>
@@ -1466,28 +1538,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="G2" s="2">
         <v>1170</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="L2" s="2">
         <v>913</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="N2" s="2">
         <v>72</v>
@@ -1508,13 +1580,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1522,13 +1594,13 @@
         <v>97</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1536,13 +1608,13 @@
         <v>98</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1550,13 +1622,13 @@
         <v>99</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1564,13 +1636,13 @@
         <v>100</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1578,13 +1650,13 @@
         <v>101</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1592,13 +1664,13 @@
         <v>102</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1606,13 +1678,13 @@
         <v>103</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1630,20 +1702,20 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1651,22 +1723,22 @@
         <v>116</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E2" s="2">
         <v>7638124</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1674,22 +1746,22 @@
         <v>117</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E3" s="2">
         <v>7418526</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1707,22 +1779,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1730,22 +1802,22 @@
         <v>122</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E2" s="2">
         <v>1000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1753,22 +1825,22 @@
         <v>123</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E3" s="2">
         <v>500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/邱議瑩_2013-12-03_財產申報表_tmp40191.xlsx
+++ b/legislator/property/output/normal/邱議瑩_2013-12-03_財產申報表_tmp40191.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="94">
   <si>
     <t>name</t>
   </si>
@@ -71,21 +71,36 @@
     <t>total</t>
   </si>
   <si>
+    <t>高雄市美濃區福安段02410000地號</t>
+  </si>
+  <si>
     <t>高雄市鳥松區育才段03160000地號</t>
   </si>
   <si>
+    <t>12分之1</t>
+  </si>
+  <si>
     <t>10000分之36</t>
   </si>
   <si>
+    <t>李永得</t>
+  </si>
+  <si>
     <t>邱議瑩</t>
   </si>
   <si>
+    <t>95年04月10日</t>
+  </si>
+  <si>
     <t>99年06月18日</t>
   </si>
   <si>
     <t>買賣</t>
   </si>
   <si>
+    <t>133075(超過五年）</t>
+  </si>
+  <si>
     <t>land</t>
   </si>
   <si>
@@ -206,9 +221,6 @@
     <t>美金</t>
   </si>
   <si>
-    <t>李永得</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -216,6 +228,12 @@
   </si>
   <si>
     <t>currency</t>
+  </si>
+  <si>
+    <t>中興商銀(已下市）</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>台灣人壽</t>
@@ -643,7 +661,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -701,54 +719,107 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>14538.71</v>
+        <v>1140.65</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="2">
-        <v>17000000</v>
+        <v>24</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M2" s="2">
         <v>913</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>95.0541666666667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2">
+        <v>14538.71</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="2">
+      <c r="H3" s="2">
+        <v>17000000</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="2">
+        <v>913</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="2">
         <v>15</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P3" s="2">
         <v>0.0036</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q3" s="2">
         <v>52.339356</v>
       </c>
     </row>
@@ -759,33 +830,113 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H1"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2">
         <v>133.61</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="2">
+        <v>17000000</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="1">
-        <v>17000000</v>
+      <c r="J2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="2">
+        <v>913</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="2">
+        <v>20</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>133.61</v>
       </c>
     </row>
   </sheetData>
@@ -794,660 +945,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:7">
-      <c r="B1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="1">
-        <v>3000</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>43</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F2" s="2">
-        <v>7248</v>
-      </c>
-      <c r="G2" s="2">
-        <v>197362.31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>44</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
-        <v>21133</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>45</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
-        <v>100229</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>46</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
-        <v>2278989</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>47</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
-        <v>648338</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <v>48</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="2">
-        <v>28513</v>
-      </c>
-      <c r="G7" s="2">
-        <v>802352.96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1">
-        <v>49</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
-        <v>1632</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
-        <v>50</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1">
-        <v>51</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
-        <v>5288</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1">
-        <v>52</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
-        <v>19475</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1">
-        <v>53</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2">
-        <v>5530</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1">
-        <v>54</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2">
-        <v>2705</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1">
-        <v>55</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="2">
-        <v>2000</v>
-      </c>
-      <c r="G14" s="2">
-        <v>59060</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="1">
-        <v>56</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2">
-        <v>2223781</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="1">
-        <v>57</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="1">
-        <v>58</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2">
-        <v>1800000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="1">
-        <v>59</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2">
-        <v>2835</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="1">
-        <v>60</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2">
-        <v>2057</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="1">
-        <v>61</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2">
-        <v>102866</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="1">
-        <v>62</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2">
-        <v>65876</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:N1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:14">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="B1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
-        <v>98</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>99</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>100</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1">
-        <v>101</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1">
-        <v>102</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1">
-        <v>103</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -1457,45 +954,826 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>30</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2">
+        <v>3000</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>42</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>43</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2">
+        <v>7248</v>
+      </c>
+      <c r="G3" s="2">
+        <v>197362.31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>44</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2">
+        <v>21133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>45</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2">
+        <v>100229</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>46</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2">
+        <v>2278989</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>47</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2">
+        <v>648338</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>48</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="2">
+        <v>28513</v>
+      </c>
+      <c r="G8" s="2">
+        <v>802352.96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>49</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>50</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>51</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2">
+        <v>5288</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>52</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2">
+        <v>19475</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>53</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2">
+        <v>5530</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>54</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2">
+        <v>2705</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>55</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2000</v>
+      </c>
+      <c r="G15" s="2">
+        <v>59060</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>56</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2">
+        <v>2223781</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>57</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>58</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2">
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>59</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2">
+        <v>2835</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>60</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>61</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2">
+        <v>102866</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>62</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2">
+        <v>65876</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
+        <v>72</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2">
+        <v>117</v>
+      </c>
+      <c r="E2" s="2">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1170</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="2">
+        <v>913</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="2">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>97</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>98</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>99</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>100</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>101</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>102</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>103</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E1" s="1">
         <v>7638124</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
+        <v>116</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="2">
+        <v>7638124</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>117</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="B3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="2">
         <v>7418526</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>77</v>
+      <c r="F3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1505,7 +1783,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1513,45 +1791,68 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1">
         <v>1000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
+        <v>122</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>123</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="2">
         <v>500000</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>87</v>
+      <c r="F3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/邱議瑩_2013-12-03_財產申報表_tmp40191.xlsx
+++ b/legislator/property/output/normal/邱議瑩_2013-12-03_財產申報表_tmp40191.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="95">
   <si>
     <t>name</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>全部</t>
+  </si>
+  <si>
+    <t>capacity</t>
   </si>
   <si>
     <t>NISSAN</t>
@@ -946,38 +949,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="1">
-        <v>3000</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" s="2">
         <v>3000</v>
@@ -986,13 +1010,34 @@
         <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="2">
+        <v>913</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="2">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1010,22 +1055,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1033,22 +1078,22 @@
         <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1056,13 +1101,13 @@
         <v>43</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>20</v>
@@ -1079,13 +1124,13 @@
         <v>44</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>20</v>
@@ -1100,13 +1145,13 @@
         <v>45</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>20</v>
@@ -1121,13 +1166,13 @@
         <v>46</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>20</v>
@@ -1142,13 +1187,13 @@
         <v>47</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>20</v>
@@ -1163,13 +1208,13 @@
         <v>48</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>20</v>
@@ -1186,13 +1231,13 @@
         <v>49</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>20</v>
@@ -1207,13 +1252,13 @@
         <v>50</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>20</v>
@@ -1228,13 +1273,13 @@
         <v>51</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>20</v>
@@ -1249,13 +1294,13 @@
         <v>52</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>20</v>
@@ -1270,13 +1315,13 @@
         <v>53</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>20</v>
@@ -1291,13 +1336,13 @@
         <v>54</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>20</v>
@@ -1312,13 +1357,13 @@
         <v>55</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>21</v>
@@ -1335,13 +1380,13 @@
         <v>56</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>21</v>
@@ -1356,13 +1401,13 @@
         <v>57</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>21</v>
@@ -1377,13 +1422,13 @@
         <v>58</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>21</v>
@@ -1398,13 +1443,13 @@
         <v>59</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>21</v>
@@ -1419,13 +1464,13 @@
         <v>60</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>21</v>
@@ -1440,13 +1485,13 @@
         <v>61</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>21</v>
@@ -1461,13 +1506,13 @@
         <v>62</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>21</v>
@@ -1498,13 +1543,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1536,7 +1581,7 @@
         <v>72</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -1548,13 +1593,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G2" s="2">
         <v>1170</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>27</v>
@@ -1590,10 +1635,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>20</v>
@@ -1604,10 +1649,10 @@
         <v>97</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>
@@ -1618,10 +1663,10 @@
         <v>98</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
@@ -1632,10 +1677,10 @@
         <v>99</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>21</v>
@@ -1646,10 +1691,10 @@
         <v>100</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>21</v>
@@ -1660,10 +1705,10 @@
         <v>101</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>21</v>
@@ -1674,10 +1719,10 @@
         <v>102</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>21</v>
@@ -1688,10 +1733,10 @@
         <v>103</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>21</v>
@@ -1712,22 +1757,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1">
         <v>7638124</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1735,22 +1780,22 @@
         <v>116</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E2" s="2">
         <v>7638124</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1758,22 +1803,22 @@
         <v>117</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E3" s="2">
         <v>7418526</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1794,19 +1839,19 @@
         <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E1" s="1">
         <v>1000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1817,19 +1862,19 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E2" s="2">
         <v>1000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1840,19 +1885,19 @@
         <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E3" s="2">
         <v>500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/邱議瑩_2013-12-03_財產申報表_tmp40191.xlsx
+++ b/legislator/property/output/normal/邱議瑩_2013-12-03_財產申報表_tmp40191.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="97">
   <si>
     <t>name</t>
   </si>
@@ -119,6 +119,9 @@
     <t>全部</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -129,6 +132,9 @@
   </si>
   <si>
     <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -915,7 +921,7 @@
         <v>17000000</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>27</v>
@@ -960,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1001,7 +1007,7 @@
         <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2">
         <v>3000</v>
@@ -1010,16 +1016,16 @@
         <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>27</v>
@@ -1055,22 +1061,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1078,22 +1084,22 @@
         <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1101,13 +1107,13 @@
         <v>43</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>20</v>
@@ -1124,13 +1130,13 @@
         <v>44</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>20</v>
@@ -1145,13 +1151,13 @@
         <v>45</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>20</v>
@@ -1166,13 +1172,13 @@
         <v>46</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>20</v>
@@ -1187,13 +1193,13 @@
         <v>47</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>20</v>
@@ -1208,13 +1214,13 @@
         <v>48</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>20</v>
@@ -1231,13 +1237,13 @@
         <v>49</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>20</v>
@@ -1252,13 +1258,13 @@
         <v>50</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>20</v>
@@ -1273,13 +1279,13 @@
         <v>51</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>20</v>
@@ -1294,13 +1300,13 @@
         <v>52</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>20</v>
@@ -1315,13 +1321,13 @@
         <v>53</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>20</v>
@@ -1336,13 +1342,13 @@
         <v>54</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>20</v>
@@ -1357,13 +1363,13 @@
         <v>55</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>21</v>
@@ -1380,13 +1386,13 @@
         <v>56</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>21</v>
@@ -1401,13 +1407,13 @@
         <v>57</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>21</v>
@@ -1422,13 +1428,13 @@
         <v>58</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>21</v>
@@ -1443,13 +1449,13 @@
         <v>59</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>21</v>
@@ -1464,13 +1470,13 @@
         <v>60</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>21</v>
@@ -1485,13 +1491,13 @@
         <v>61</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>21</v>
@@ -1506,13 +1512,13 @@
         <v>62</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>21</v>
@@ -1543,13 +1549,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1581,7 +1587,7 @@
         <v>72</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -1593,13 +1599,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G2" s="2">
         <v>1170</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>27</v>
@@ -1635,10 +1641,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>20</v>
@@ -1649,10 +1655,10 @@
         <v>97</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>
@@ -1663,10 +1669,10 @@
         <v>98</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
@@ -1677,10 +1683,10 @@
         <v>99</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>21</v>
@@ -1691,10 +1697,10 @@
         <v>100</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>21</v>
@@ -1705,10 +1711,10 @@
         <v>101</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>21</v>
@@ -1719,10 +1725,10 @@
         <v>102</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>21</v>
@@ -1733,10 +1739,10 @@
         <v>103</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>21</v>
@@ -1757,22 +1763,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E1" s="1">
         <v>7638124</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1780,22 +1786,22 @@
         <v>116</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E2" s="2">
         <v>7638124</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1803,22 +1809,22 @@
         <v>117</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E3" s="2">
         <v>7418526</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1839,19 +1845,19 @@
         <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1">
         <v>1000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1862,19 +1868,19 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E2" s="2">
         <v>1000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1885,19 +1891,19 @@
         <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E3" s="2">
         <v>500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/邱議瑩_2013-12-03_財產申報表_tmp40191.xlsx
+++ b/legislator/property/output/normal/邱議瑩_2013-12-03_財產申報表_tmp40191.xlsx
@@ -10,7 +10,7 @@
     <sheet name="土地" sheetId="1" r:id="rId1"/>
     <sheet name="建物" sheetId="2" r:id="rId2"/>
     <sheet name="汽車" sheetId="3" r:id="rId3"/>
-    <sheet name="現金" sheetId="4" r:id="rId4"/>
+    <sheet name="存款" sheetId="4" r:id="rId4"/>
     <sheet name="股票" sheetId="5" r:id="rId5"/>
     <sheet name="保險" sheetId="6" r:id="rId6"/>
     <sheet name="債務" sheetId="7" r:id="rId7"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="94">
   <si>
     <t>name</t>
   </si>
@@ -137,22 +137,13 @@
     <t>car</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>外幣總額</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
   </si>
   <si>
     <t>NationalAustraliaBandSydney</t>
@@ -230,13 +221,13 @@
     <t>美金</t>
   </si>
   <si>
+    <t>deposit</t>
+  </si>
+  <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>中興商銀(已下市）</t>
@@ -1053,13 +1044,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>38</v>
       </c>
@@ -1070,462 +1061,851 @@
         <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1">
+        <v>43</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="C2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2">
+        <v>197362.31</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="2">
+        <v>913</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1">
+        <v>44</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>42</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>43</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F3" s="2">
-        <v>7248</v>
-      </c>
-      <c r="G3" s="2">
-        <v>197362.31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>21133</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="2">
+        <v>913</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
-        <v>21133</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="F4" s="2">
+        <v>100229</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="2">
+        <v>913</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
-        <v>100229</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="F5" s="2">
+        <v>2278989</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="2">
+        <v>913</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
-        <v>2278989</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="F6" s="2">
+        <v>648338</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="2">
+        <v>913</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
-        <v>648338</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="F7" s="2">
+        <v>802352.96</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="2">
+        <v>913</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F8" s="2">
-        <v>28513</v>
-      </c>
-      <c r="G8" s="2">
-        <v>802352.96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>1632</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="2">
+        <v>913</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
-        <v>1632</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="F9" s="2">
+        <v>426</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="2">
+        <v>913</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="F10" s="2">
+        <v>5288</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="2">
+        <v>913</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
-        <v>5288</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="F11" s="2">
+        <v>19475</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="2">
+        <v>913</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2">
-        <v>19475</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="F12" s="2">
+        <v>5530</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="2">
+        <v>913</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M12" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2">
-        <v>5530</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="F13" s="2">
+        <v>2705</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" s="2">
+        <v>913</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M13" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="2">
+        <v>59060</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" s="2">
+        <v>913</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M14" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="1">
+        <v>56</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2223781</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="2">
+        <v>913</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M15" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>57</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2">
-        <v>2705</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="1">
-        <v>55</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="2">
-        <v>2000</v>
-      </c>
-      <c r="G15" s="2">
-        <v>59060</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="1">
-        <v>56</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>61</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="2">
+        <v>300000</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2">
-        <v>2223781</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" s="2">
+        <v>913</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M16" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
+        <v>58</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1800000</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" s="2">
+        <v>913</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M17" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>59</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="2">
+        <v>2835</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="2">
+        <v>913</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M18" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>60</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="2">
+        <v>2057</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" s="2">
+        <v>913</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M19" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="1">
+        <v>61</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="2">
+        <v>102866</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" s="2">
+        <v>913</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M20" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="1">
+        <v>62</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="2" t="s">
+      <c r="C21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="2">
+        <v>65876</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="1">
-        <v>58</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2">
-        <v>1800000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="1">
-        <v>59</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2">
-        <v>2835</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="1">
-        <v>60</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2">
-        <v>2057</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="1">
-        <v>61</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2">
-        <v>102866</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="1">
+      <c r="H21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" s="2">
+        <v>913</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M21" s="2">
         <v>62</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2">
-        <v>65876</v>
       </c>
     </row>
   </sheetData>
@@ -1549,13 +1929,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1587,7 +1967,7 @@
         <v>72</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -1599,13 +1979,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G2" s="2">
         <v>1170</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>27</v>
@@ -1641,10 +2021,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>20</v>
@@ -1655,10 +2035,10 @@
         <v>97</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>
@@ -1669,10 +2049,10 @@
         <v>98</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
@@ -1683,10 +2063,10 @@
         <v>99</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>21</v>
@@ -1697,10 +2077,10 @@
         <v>100</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>21</v>
@@ -1711,10 +2091,10 @@
         <v>101</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>21</v>
@@ -1725,10 +2105,10 @@
         <v>102</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>21</v>
@@ -1739,10 +2119,10 @@
         <v>103</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>21</v>
@@ -1763,22 +2143,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E1" s="1">
         <v>7638124</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1786,22 +2166,22 @@
         <v>116</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E2" s="2">
         <v>7638124</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1809,22 +2189,22 @@
         <v>117</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E3" s="2">
         <v>7418526</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1845,19 +2225,19 @@
         <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1">
         <v>1000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1868,19 +2248,19 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E2" s="2">
         <v>1000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1891,19 +2271,19 @@
         <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E3" s="2">
         <v>500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/邱議瑩_2013-12-03_財產申報表_tmp40191.xlsx
+++ b/legislator/property/output/normal/邱議瑩_2013-12-03_財產申報表_tmp40191.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="101">
   <si>
     <t>name</t>
   </si>
@@ -236,15 +236,18 @@
     <t>stock</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>台灣人壽</t>
   </si>
   <si>
+    <t>國泰人壽</t>
+  </si>
+  <si>
     <t>歲歲長泰還本終身險</t>
   </si>
   <si>
-    <t>國泰人壽</t>
-  </si>
-  <si>
     <t>新祥和定期壽險</t>
   </si>
   <si>
@@ -263,46 +266,64 @@
     <t>雙星還本終身險</t>
   </si>
   <si>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
     <t>房屋貸款</t>
   </si>
   <si>
     <t>京城商業銀行忠孝分行臺北市南港區忠孝東路六段21號1樓</t>
   </si>
   <si>
+    <t>臺灣銀行高雄三民分行高雄市三民區九如二路567號</t>
+  </si>
+  <si>
     <t>98年11月16日</t>
   </si>
   <si>
+    <t>99年06月21曰</t>
+  </si>
+  <si>
     <t>購屋</t>
   </si>
   <si>
-    <t>臺灣銀行高雄三民分行高雄市三民區九如二路567號</t>
-  </si>
-  <si>
-    <t>99年06月21曰</t>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>address</t>
   </si>
   <si>
     <t>玉山社事業股份有限公司</t>
   </si>
   <si>
+    <t>先驅媒體社會企業股份有限公司</t>
+  </si>
+  <si>
     <t>臺北市仁愛路四段145號3樓之2</t>
   </si>
   <si>
+    <t>臺北市仁愛路二段98號7樓</t>
+  </si>
+  <si>
     <t>84年07月08日</t>
   </si>
   <si>
+    <t>98年07月24日</t>
+  </si>
+  <si>
     <t>發起設立</t>
   </si>
   <si>
-    <t>先驅媒體社會企業股份有限公司</t>
-  </si>
-  <si>
-    <t>臺北市仁愛路二段98號7樓</t>
-  </si>
-  <si>
-    <t>98年07月24日</t>
-  </si>
-  <si>
     <t>發起</t>
+  </si>
+  <si>
+    <t>investment</t>
   </si>
 </sst>
 </file>
@@ -2013,52 +2034,115 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>97</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="2">
+        <v>913</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>98</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="2">
+        <v>913</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>99</v>
       </c>
@@ -2066,13 +2150,34 @@
         <v>73</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="2">
+        <v>913</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>100</v>
       </c>
@@ -2080,13 +2185,34 @@
         <v>73</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="2">
+        <v>913</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>101</v>
       </c>
@@ -2094,13 +2220,34 @@
         <v>73</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="2">
+        <v>913</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>102</v>
       </c>
@@ -2108,13 +2255,34 @@
         <v>73</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="2">
+        <v>913</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>103</v>
       </c>
@@ -2122,10 +2290,31 @@
         <v>73</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>21</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="2">
+        <v>913</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="2">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2135,76 +2324,139 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" s="1">
-        <v>7638124</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>116</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E2" s="2">
         <v>7638124</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>89</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="2">
+        <v>913</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>117</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E3" s="2">
         <v>7418526</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="2">
+        <v>913</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="2">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2214,33 +2466,54 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E1" s="1">
-        <v>1000000</v>
+        <v>91</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>88</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>122</v>
       </c>
@@ -2248,22 +2521,43 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E2" s="2">
         <v>1000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>98</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="2">
+        <v>913</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>123</v>
       </c>
@@ -2271,19 +2565,40 @@
         <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E3" s="2">
         <v>500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="2">
+        <v>913</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="2">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
